--- a/graphs/STM32F/mat_mul/mat_mul.xlsx
+++ b/graphs/STM32F/mat_mul/mat_mul.xlsx
@@ -6,8 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="mat_mul_data_ccm" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="mat_mul_data_ram" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="mat_mul_data_ccm code_FLASH" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="mat_mul_data_ccm code_CCM" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="mat_mul_data_ram code_FLASH" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="mat_mul_data_ram code_CCM" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,32 +464,17 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>FLASH 24</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>CCM 24</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>FLASH 48</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>CCM 48</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>FLASH 72</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>CCM 72</t>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -501,19 +488,10 @@
         <v>11581.97242093373</v>
       </c>
       <c r="C2" t="n">
-        <v>10687.07833807152</v>
+        <v>20113.92055413662</v>
       </c>
       <c r="D2" t="n">
-        <v>20113.92055413662</v>
-      </c>
-      <c r="E2" t="n">
-        <v>19792.87646033547</v>
-      </c>
-      <c r="F2" t="n">
         <v>26419.0673828125</v>
-      </c>
-      <c r="G2" t="n">
-        <v>26835.30220618615</v>
       </c>
     </row>
     <row r="3">
@@ -526,19 +504,10 @@
         <v>0.00664</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00664</v>
+        <v>0.0039</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0039</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.00352</v>
-      </c>
-      <c r="F3" t="n">
         <v>0.0031</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.0026</v>
       </c>
     </row>
     <row r="4">
@@ -554,28 +523,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(2076.44, 2083.08)</t>
+          <t>(3058.88, 3062.78)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(3058.88, 3062.78)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>(3258.0, 3261.52)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
           <t>(4237.44, 4240.54)</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>(4435.72, 4438.32)</t>
-        </is>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>253.7841796875</v>
+      </c>
+      <c r="C5" t="n">
+        <v>258.8661575317383</v>
+      </c>
+      <c r="D5" t="n">
+        <v>270.2670593261719</v>
       </c>
     </row>
   </sheetData>
@@ -589,7 +559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,32 +570,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>FLASH 24</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>CCM 24</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>FLASH 48</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>CCM 48</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>FLASH 72</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>CCM 72</t>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -636,22 +591,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11626.79224129183</v>
+        <v>10687.07833807152</v>
       </c>
       <c r="C2" t="n">
-        <v>10455.93447235942</v>
+        <v>19792.87646033547</v>
       </c>
       <c r="D2" t="n">
-        <v>20179.62202733877</v>
-      </c>
-      <c r="E2" t="n">
-        <v>19383.56518071924</v>
-      </c>
-      <c r="F2" t="n">
-        <v>26585.92962449597</v>
-      </c>
-      <c r="G2" t="n">
-        <v>26115.43965894122</v>
+        <v>26835.30220618615</v>
       </c>
     </row>
     <row r="3">
@@ -664,19 +610,10 @@
         <v>0.00664</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00658</v>
+        <v>0.00352</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00392</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.00354</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0031</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.00258</v>
+        <v>0.0026</v>
       </c>
     </row>
     <row r="4">
@@ -687,33 +624,246 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>(2076.44, 2083.08)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>(3258.0, 3261.52)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>(4435.72, 4438.32)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>234.1752605438232</v>
+      </c>
+      <c r="C5" t="n">
+        <v>229.9140529632568</v>
+      </c>
+      <c r="D5" t="n">
+        <v>230.2468929290771</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>intensity</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>11626.79224129183</v>
+      </c>
+      <c r="C2" t="n">
+        <v>20179.62202733877</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26585.92962449597</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.00664</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.00392</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0031</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>(1518.24, 1524.88)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>(2702.42, 2706.34)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>(3880.86, 3883.96)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>254.7662715911865</v>
+      </c>
+      <c r="C5" t="n">
+        <v>261.0435905456543</v>
+      </c>
+      <c r="D5" t="n">
+        <v>271.9740600585937</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>intensity</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10455.93447235942</v>
+      </c>
+      <c r="C2" t="n">
+        <v>19383.56518071924</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26115.43965894122</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.00658</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.00354</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.00258</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>(1720.14, 1726.72)</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>(2901.54, 2905.08)</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(2702.42, 2706.34)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>(2901.54, 2905.08)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(3880.86, 3883.96)</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
           <t>(4079.26, 4081.84)</t>
         </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>227.0401611328125</v>
+      </c>
+      <c r="C5" t="n">
+        <v>226.4388084411621</v>
+      </c>
+      <c r="D5" t="n">
+        <v>222.3468532562256</v>
       </c>
     </row>
   </sheetData>

--- a/graphs/STM32F/mat_mul/mat_mul.xlsx
+++ b/graphs/STM32F/mat_mul/mat_mul.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="mat_mul_data_ccm code_FLASH" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="mat_mul_data_ccm code_CCM" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="mat_mul_data_ram code_FLASH" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="mat_mul_data_ram code_CCM" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="data_CCM code_FLASH" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="data_CCM code_CCM" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="data_RAM code_FLASH" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="data_RAM code_CCM" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -485,13 +485,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11581.97242093373</v>
+        <v>11582</v>
       </c>
       <c r="C2" t="n">
-        <v>20113.92055413662</v>
+        <v>20114</v>
       </c>
       <c r="D2" t="n">
-        <v>26419.0673828125</v>
+        <v>26419</v>
       </c>
     </row>
     <row r="3">
@@ -539,13 +539,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>253.7841796875</v>
+        <v>0.254</v>
       </c>
       <c r="C5" t="n">
-        <v>258.8661575317383</v>
+        <v>0.259</v>
       </c>
       <c r="D5" t="n">
-        <v>270.2670593261719</v>
+        <v>0.27</v>
       </c>
     </row>
   </sheetData>
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10687.07833807152</v>
+        <v>10687</v>
       </c>
       <c r="C2" t="n">
-        <v>19792.87646033547</v>
+        <v>19793</v>
       </c>
       <c r="D2" t="n">
-        <v>26835.30220618615</v>
+        <v>26835</v>
       </c>
     </row>
     <row r="3">
@@ -645,13 +645,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>234.1752605438232</v>
+        <v>0.234</v>
       </c>
       <c r="C5" t="n">
-        <v>229.9140529632568</v>
+        <v>0.23</v>
       </c>
       <c r="D5" t="n">
-        <v>230.2468929290771</v>
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
@@ -697,13 +697,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11626.79224129183</v>
+        <v>11627</v>
       </c>
       <c r="C2" t="n">
-        <v>20179.62202733877</v>
+        <v>20180</v>
       </c>
       <c r="D2" t="n">
-        <v>26585.92962449597</v>
+        <v>26586</v>
       </c>
     </row>
     <row r="3">
@@ -751,13 +751,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>254.7662715911865</v>
+        <v>0.255</v>
       </c>
       <c r="C5" t="n">
-        <v>261.0435905456543</v>
+        <v>0.261</v>
       </c>
       <c r="D5" t="n">
-        <v>271.9740600585937</v>
+        <v>0.272</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10455.93447235942</v>
+        <v>10456</v>
       </c>
       <c r="C2" t="n">
-        <v>19383.56518071924</v>
+        <v>19384</v>
       </c>
       <c r="D2" t="n">
-        <v>26115.43965894122</v>
+        <v>26115</v>
       </c>
     </row>
     <row r="3">
@@ -857,13 +857,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>227.0401611328125</v>
+        <v>0.227</v>
       </c>
       <c r="C5" t="n">
-        <v>226.4388084411621</v>
+        <v>0.226</v>
       </c>
       <c r="D5" t="n">
-        <v>222.3468532562256</v>
+        <v>0.222</v>
       </c>
     </row>
   </sheetData>

--- a/graphs/STM32F/mat_mul/mat_mul.xlsx
+++ b/graphs/STM32F/mat_mul/mat_mul.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="data_CCM code_FLASH" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="data_CCM code_CCM" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="data_RAM code_FLASH" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="data_RAM code_CCM" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="data_CCM-code_FLASH" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="data_CCM-code_CCM" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="data_RAM-code_FLASH" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="data_RAM-code_CCM" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
